--- a/biology/Zoologie/Cheilotomona/Cheilotomona.xlsx
+++ b/biology/Zoologie/Cheilotomona/Cheilotomona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheilotomona est un genre éteint de mollusques gastéropodes marins du super-ordre des Caenogastropoda, de la super-famille des Orthonematoidea et de la famille des Goniasmatidae. Les espèces datent du Trias et ont été trouvées en Chine et en Italie.
 </t>
@@ -511,13 +523,15 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>†Cheilotomona acutocarinata Tong and Erwin, 2001[2] - Trias, Chine
-†Cheilotomona avisii (syn. Cheilotoma avisii) Böhm, 1895[3] - Trias, Italie
-†Cheilotomona blumi (syn. Murchisonia (Cheilotoma) blumi, Pleurotomaria blumi, Fusus tripunctatus Münster, 1841, Pleurotomaria nerei Münster, 1841) Wissmann, 1841[4] - Trias, Italie
-†Cheilotomona elegans Yin and Yochelson, 1983[5] - Trias, province du Guizhou, Chine
-†Cheilotomona pentagonum Yu et al., 1974[6] - Trias, Chine</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>†Cheilotomona acutocarinata Tong and Erwin, 2001 - Trias, Chine
+†Cheilotomona avisii (syn. Cheilotoma avisii) Böhm, 1895 - Trias, Italie
+†Cheilotomona blumi (syn. Murchisonia (Cheilotoma) blumi, Pleurotomaria blumi, Fusus tripunctatus Münster, 1841, Pleurotomaria nerei Münster, 1841) Wissmann, 1841 - Trias, Italie
+†Cheilotomona elegans Yin and Yochelson, 1983 - Trias, province du Guizhou, Chine
+†Cheilotomona pentagonum Yu et al., 1974 - Trias, Chine</t>
         </is>
       </c>
     </row>
